--- a/companies.xlsx
+++ b/companies.xlsx
@@ -1,38 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deanblank/Documents/url_scraper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\blankdean\github\Company_URL_Aggregator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2125E277-13EA-2849-A548-C332F59D0D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9AB84D-5AF3-45E9-B3F3-C69FDCCF8CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="2835" windowWidth="12780" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Company Name</t>
   </si>
@@ -43,13 +31,22 @@
     <t>Amazon</t>
   </si>
   <si>
+    <t>https://www.amazon.com/</t>
+  </si>
+  <si>
     <t>OpenAI</t>
   </si>
   <si>
+    <t>https://openai.com/</t>
+  </si>
+  <si>
     <t>Target</t>
   </si>
   <si>
-    <t>bluewave group</t>
+    <t>https://www.target.com/</t>
+  </si>
+  <si>
+    <t>Bluewave Technology Group</t>
   </si>
   <si>
     <t>Apple</t>
@@ -62,6 +59,27 @@
   </si>
   <si>
     <t>petco</t>
+  </si>
+  <si>
+    <t>lu lu lemon</t>
+  </si>
+  <si>
+    <t>logitech</t>
+  </si>
+  <si>
+    <t>microsoft</t>
+  </si>
+  <si>
+    <t>sony</t>
+  </si>
+  <si>
+    <t>xbox</t>
+  </si>
+  <si>
+    <t>airpods</t>
+  </si>
+  <si>
+    <t>raybands</t>
   </si>
 </sst>
 </file>
@@ -413,19 +431,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,44 +451,88 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
